--- a/NB-Car相关/引脚分配.xlsx
+++ b/NB-Car相关/引脚分配.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workPlace\GitHub\car_personal\NB-Car相关\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774FC534-302A-4C86-BEAF-06B3755C38EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11745"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="100">
   <si>
     <t>PA</t>
   </si>
@@ -118,9 +124,6 @@
     <t>PB8/TIM4_CH3</t>
   </si>
   <si>
-    <t>后轮1</t>
-  </si>
-  <si>
     <t>PA9/USART1_TX</t>
   </si>
   <si>
@@ -130,9 +133,6 @@
     <t>PB9/TIM4_CH4</t>
   </si>
   <si>
-    <t>后轮2</t>
-  </si>
-  <si>
     <t>PA10/USART1_RX</t>
   </si>
   <si>
@@ -245,19 +245,113 @@
   </si>
   <si>
     <t>D0</t>
+  </si>
+  <si>
+    <t>接收端</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制端</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC-05蓝牙模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPU6050六轴传感器模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VCC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GND</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3V</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RXD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后轮-后</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后轮-前</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,151 +368,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="22"/>
+      <color theme="4" tint="-0.249977111117893"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="41">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -433,7 +416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.5"/>
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,7 +428,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,210 +440,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.25"/>
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.6"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -668,255 +465,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -935,9 +490,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -950,62 +502,33 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1263,325 +786,444 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.5666666666667" customWidth="1"/>
-    <col min="2" max="2" width="13.3666666666667" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
     <col min="5" max="5" width="11.875" customWidth="1"/>
     <col min="7" max="7" width="15.625" customWidth="1"/>
     <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+    </row>
+    <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="1" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="1" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G4" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="5" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G5" t="s">
         <v>15</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="5" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E11" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="7" t="s">
+      <c r="B12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="D12" t="s">
         <v>36</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E12" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="7" t="s">
+      <c r="D13" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="E13" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D12" t="s">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="D14" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
+      <c r="E14" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D13" t="s">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="D15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
+      <c r="E15" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D14" t="s">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="D16" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
+      <c r="E16" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D15" t="s">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="D17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
         <v>52</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
+    <row r="23" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D17" t="s">
+      <c r="B23" s="12"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="22" ht="14.25" spans="1:2">
-      <c r="A22" s="1" t="s">
+      <c r="B24" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="9" t="s">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="9" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="9" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B27" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="9" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
         <v>63</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B28" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B29" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="9" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="9" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="9" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="9" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B33" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" s="9" t="s">
+    <row r="36" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A36" s="13" t="s">
         <v>76</v>
       </c>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+    </row>
+    <row r="37" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A37" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>85</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A22:B22"/>
+  <mergeCells count="3">
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A36:H36"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/NB-Car相关/引脚分配.xlsx
+++ b/NB-Car相关/引脚分配.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workPlace\GitHub\car_personal\NB-Car相关\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774FC534-302A-4C86-BEAF-06B3755C38EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21000" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="99">
+  <si>
+    <t>接收端</t>
+  </si>
   <si>
     <t>PA</t>
   </si>
@@ -124,6 +121,9 @@
     <t>PB8/TIM4_CH3</t>
   </si>
   <si>
+    <t>后轮-后</t>
+  </si>
+  <si>
     <t>PA9/USART1_TX</t>
   </si>
   <si>
@@ -133,6 +133,9 @@
     <t>PB9/TIM4_CH4</t>
   </si>
   <si>
+    <t>后轮-前</t>
+  </si>
+  <si>
     <t>PA10/USART1_RX</t>
   </si>
   <si>
@@ -247,114 +250,91 @@
     <t>D0</t>
   </si>
   <si>
-    <t>接收端</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>控制端</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>HC-05蓝牙模块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MPU6050六轴传感器模块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>VCC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GND</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3V</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>PG8</t>
   </si>
   <si>
     <t>SCL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB10</t>
+  </si>
+  <si>
+    <t>KEY</t>
+  </si>
+  <si>
+    <t>PA4</t>
   </si>
   <si>
     <t>SDA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB11</t>
+  </si>
+  <si>
+    <t>TXD</t>
+  </si>
+  <si>
+    <t>PC11</t>
   </si>
   <si>
     <t>AD0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA15</t>
+  </si>
+  <si>
+    <t>RXD</t>
+  </si>
+  <si>
+    <t>PC10</t>
   </si>
   <si>
     <t>INT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>未用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.3V</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PB10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PB11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KEY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TXD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RXD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PG8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>后轮-后</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>后轮-前</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="4" tint="-0.249977111117893"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -368,26 +348,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="22"/>
-      <color theme="4" tint="-0.249977111117893"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -396,12 +359,155 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -428,7 +534,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,18 +552,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -465,20 +757,271 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -490,6 +1033,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -502,33 +1048,71 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -786,19 +1370,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="15.625" customWidth="1"/>
     <col min="2" max="2" width="13.375" customWidth="1"/>
@@ -808,422 +1392,429 @@
     <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-    </row>
-    <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="1" ht="27" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" ht="14.25" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" spans="1:2">
+      <c r="A23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" ht="27" spans="1:8">
+      <c r="A36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" ht="14.25" spans="1:4">
+      <c r="A37" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="D40" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="12"/>
+      <c r="D41" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="12"/>
+      <c r="D43" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E43" s="13" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="12"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A36" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-    </row>
-    <row r="37" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A37" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A43" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="A1:H1"/>
     <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A1:H1"/>
     <mergeCell ref="A36:H36"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/NB-Car相关/引脚分配.xlsx
+++ b/NB-Car相关/引脚分配.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workPlace\GitHub\car_personal\NB-Car相关\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844CD5AF-11F3-41FE-86E3-ED2A5EB398C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="112">
   <si>
     <t>接收端</t>
   </si>
@@ -311,19 +317,65 @@
   </si>
   <si>
     <t>未用</t>
+  </si>
+  <si>
+    <t>LED</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED2,PE5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED3,PB5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>S3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>S4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>单击：右</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>单击：左</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>单击：后</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>单击：前</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>双击：？？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -363,151 +415,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -534,7 +465,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,187 +483,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,14 +499,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -766,353 +517,91 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1370,442 +859,525 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="11.875" customWidth="1"/>
-    <col min="7" max="7" width="15.625" customWidth="1"/>
-    <col min="8" max="8" width="15.125" customWidth="1"/>
+    <col min="1" max="1" width="15.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9" style="4"/>
+    <col min="4" max="4" width="24" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9" style="4"/>
+    <col min="7" max="7" width="15.625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.125" style="4" customWidth="1"/>
+    <col min="9" max="11" width="9" style="4"/>
+    <col min="12" max="12" width="16" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" ht="14.25" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="1:2">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="9" t="s">
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="9" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="9" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="9" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="9" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="9" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="9" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="9" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="9" t="s">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A33" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="36" ht="27" spans="1:8">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A36" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" ht="14.25" spans="1:4">
-      <c r="A37" s="11" t="s">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A37" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="11" t="s">
+      <c r="C37" s="14"/>
+      <c r="D37" s="13" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="13" t="s">
+      <c r="F37" s="14"/>
+      <c r="G37" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="I37" s="14"/>
+      <c r="J37" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A38" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="13" t="s">
+      <c r="C38" s="14"/>
+      <c r="D38" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="E38" s="13" t="s">
+      <c r="E38" s="17" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="13" t="s">
+      <c r="F38" s="14"/>
+      <c r="G38" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="I38" s="14"/>
+      <c r="J38" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="K38" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="L38" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A39" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="13" t="s">
+      <c r="C39" s="14"/>
+      <c r="D39" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E39" s="17" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="13" t="s">
+      <c r="F39" s="14"/>
+      <c r="G39" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="I39" s="14"/>
+      <c r="J39" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="K39" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="L39" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A40" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="13" t="s">
+      <c r="C40" s="14"/>
+      <c r="D40" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="E40" s="13" t="s">
+      <c r="E40" s="17" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="13" t="s">
+      <c r="F40" s="14"/>
+      <c r="G40" s="17"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="K40" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="L40" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A41" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="12"/>
-      <c r="D41" s="13" t="s">
+      <c r="C41" s="14"/>
+      <c r="D41" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="E41" s="13" t="s">
+      <c r="E41" s="17" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="13" t="s">
+      <c r="F41" s="14"/>
+      <c r="G41" s="17"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="K41" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="L41" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A42" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="13" t="s">
+      <c r="C42" s="14"/>
+      <c r="D42" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="E42" s="13" t="s">
+      <c r="E42" s="17" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="13" t="s">
+      <c r="F42" s="14"/>
+      <c r="G42" s="17"/>
+      <c r="I42" s="14"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A43" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="13" t="s">
+      <c r="C43" s="14"/>
+      <c r="D43" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="E43" s="13" t="s">
+      <c r="E43" s="17" t="s">
         <v>98</v>
       </c>
+      <c r="F43" s="14"/>
+      <c r="G43" s="17"/>
+      <c r="I43" s="14"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I44" s="21"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I45" s="21"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I46" s="21"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I47" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1813,8 +1385,8 @@
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A36:H36"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/NB-Car相关/引脚分配.xlsx
+++ b/NB-Car相关/引脚分配.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workPlace\GitHub\car_personal\NB-Car相关\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844CD5AF-11F3-41FE-86E3-ED2A5EB398C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA0A7AF-F2A5-46FA-9C2A-A0F6CBDEF035}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="119">
   <si>
     <t>接收端</t>
   </si>
@@ -280,9 +280,6 @@
     <t>SCL</t>
   </si>
   <si>
-    <t>PB10</t>
-  </si>
-  <si>
     <t>KEY</t>
   </si>
   <si>
@@ -292,15 +289,9 @@
     <t>SDA</t>
   </si>
   <si>
-    <t>PB11</t>
-  </si>
-  <si>
     <t>TXD</t>
   </si>
   <si>
-    <t>PC11</t>
-  </si>
-  <si>
     <t>AD0</t>
   </si>
   <si>
@@ -310,9 +301,6 @@
     <t>RXD</t>
   </si>
   <si>
-    <t>PC10</t>
-  </si>
-  <si>
     <t>INT</t>
   </si>
   <si>
@@ -368,6 +356,50 @@
   </si>
   <si>
     <t>双击：？？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA2(USART2)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA3(USART2)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB10(I2C2)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB11(I2C2)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度（DS18B20）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VCC</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GND</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATA</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3V</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GND</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG11</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -523,71 +555,74 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -865,38 +900,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9" style="4"/>
-    <col min="4" max="4" width="24" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9" style="4"/>
-    <col min="7" max="7" width="15.625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="15.125" style="4" customWidth="1"/>
-    <col min="9" max="11" width="9" style="4"/>
-    <col min="12" max="12" width="16" style="4" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="15.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="24" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9" style="2"/>
+    <col min="7" max="7" width="15.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.125" style="2" customWidth="1"/>
+    <col min="9" max="11" width="9" style="2"/>
+    <col min="12" max="12" width="16" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -914,470 +949,504 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="10" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="3"/>
+      <c r="B23" s="21"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="9" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="9" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="9" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A33" s="11" t="s">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A33" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A36" s="2" t="s">
+    <row r="36" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+      <c r="A36" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-    </row>
-    <row r="37" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A37" s="13" t="s">
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+    </row>
+    <row r="37" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A37" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="13" t="s">
+      <c r="C37" s="12"/>
+      <c r="D37" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="F37" s="14"/>
-      <c r="G37" s="15" t="s">
+      <c r="F37" s="12"/>
+      <c r="G37" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="I37" s="12"/>
+      <c r="J37" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="N37" s="12"/>
+      <c r="O37" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A38" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F38" s="12"/>
+      <c r="G38" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="I38" s="12"/>
+      <c r="J38" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="I37" s="14"/>
-      <c r="J37" s="15" t="s">
+      <c r="K38" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="L38" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="N38" s="12"/>
+      <c r="O38" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="P38" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q38" s="18"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A39" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F39" s="12"/>
+      <c r="G39" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="I39" s="12"/>
+      <c r="J39" s="17" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A38" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E38" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="F38" s="14"/>
-      <c r="G38" s="18" t="s">
+      <c r="K39" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="L39" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="N39" s="12"/>
+      <c r="O39" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="P39" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q39" s="18"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A40" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="D40" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="F40" s="12"/>
+      <c r="G40" s="15"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="I38" s="14"/>
-      <c r="J38" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="K38" s="20" t="s">
+      <c r="K40" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="L40" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="L38" s="20" t="s">
+      <c r="N40" s="12"/>
+      <c r="O40" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="P40" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q40" s="18"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A41" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="12"/>
+      <c r="D41" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41" s="18" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A39" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E39" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="F39" s="14"/>
-      <c r="G39" s="18" t="s">
+      <c r="F41" s="12"/>
+      <c r="G41" s="15"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="I39" s="14"/>
-      <c r="J39" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="K39" s="20" t="s">
+      <c r="K41" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="L41" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="N41" s="12"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="18"/>
+      <c r="Q41" s="18"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A42" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="L39" s="20" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="E40" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="F40" s="14"/>
-      <c r="G40" s="17"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="K40" s="20" t="s">
+      <c r="C42" s="12"/>
+      <c r="D42" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F42" s="12"/>
+      <c r="G42" s="15"/>
+      <c r="I42" s="12"/>
+      <c r="N42" s="12"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A43" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="L40" s="20" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A41" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="E41" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="F41" s="14"/>
-      <c r="G41" s="17"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="K41" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="L41" s="20" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A42" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" s="14"/>
-      <c r="D42" s="16" t="s">
+      <c r="C43" s="12"/>
+      <c r="D43" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="E43" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="F42" s="14"/>
-      <c r="G42" s="17"/>
-      <c r="I42" s="14"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A43" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="E43" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="F43" s="14"/>
-      <c r="G43" s="17"/>
-      <c r="I43" s="14"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="I44" s="21"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="I45" s="21"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="I46" s="21"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="I47" s="21"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="15"/>
+      <c r="I43" s="12"/>
+      <c r="N43" s="12"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="I44" s="19"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="I45" s="19"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="I46" s="19"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="I47" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">
